--- a/SingleSwitchExcelPig.xlsx
+++ b/SingleSwitchExcelPig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\学习\大四下学期\毕业设计\完成成果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\学习\大四下学期\毕业设计\GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7845"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,11 +318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178364968"/>
-        <c:axId val="178364576"/>
+        <c:axId val="192021832"/>
+        <c:axId val="192486336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178364968"/>
+        <c:axId val="192021832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,12 +437,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178364576"/>
+        <c:crossAx val="192486336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178364576"/>
+        <c:axId val="192486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +565,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178364968"/>
+        <c:crossAx val="192021832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1276,16 +1276,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>184896</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>90767</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>521072</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>655543</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>144555</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>308160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155761</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
